--- a/Ferramentas.xlsx
+++ b/Ferramentas.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -584,6 +584,44 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Teste 5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="5"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ferramentas.xlsx
+++ b/Ferramentas.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -621,7 +621,81 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Teste2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>teste3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ferramentas.xlsx
+++ b/Ferramentas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -459,15 +459,15 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="13" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="12.1640625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="8" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="10.6640625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="5" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="9.1640625" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="11.6640625" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="10" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="4.6640625" bestFit="1" customWidth="1" min="7" max="7"/>
@@ -476,7 +476,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>FERRRAMENTAS</t>
+          <t>FERRRAMENTA</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>PESO</t>
+          <t>MATERIAL</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">

--- a/Ferramentas.xlsx
+++ b/Ferramentas.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -1034,7 +1034,44 @@
         </is>
       </c>
     </row>
-    <row r="17"/>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ultrapix</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Tecpix</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Plastico</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>12.5v</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Digital</t>
+        </is>
+      </c>
+    </row>
+    <row r="18"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ferramentas.xlsx
+++ b/Ferramentas.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -1071,7 +1071,303 @@
         </is>
       </c>
     </row>
-    <row r="18"/>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Filmadora</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Canon</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Canon</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Aluminio</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>12.v</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Digital</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>pix</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mega</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ferro</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Digital</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Filmadora</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>pix</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ferro</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Digital</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Filmadora</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pro</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>megapix</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ferro</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>12v</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Digital</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Tripe</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>xxx</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>yyy</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ferro</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Fisico</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Filmadora</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>xxx</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>xxx</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>xxx</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>xxxx</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>xxxx</t>
+        </is>
+      </c>
+    </row>
+    <row r="26"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
